--- a/PCB/production/SuperGamepad+_BOM.xlsx
+++ b/PCB/production/SuperGamepad+_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>#</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>CSTNE12M0GH5L000R0</t>
+  </si>
+  <si>
+    <t>R25, R25</t>
+  </si>
+  <si>
+    <t>75k</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0603_1608Metric</t>
   </si>
 </sst>
 </file>
@@ -1099,6 +1108,23 @@
         <v>86</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" s="1">
+        <v>33.0</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
